--- a/munkafolyamat/Mobilfox_promo.xlsx
+++ b/munkafolyamat/Mobilfox_promo.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF7EC523-294E-4181-8A88-9C267AF361EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Munka1" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="35">
   <si>
     <t>Mobilfox_promo</t>
   </si>
@@ -93,9 +94,6 @@
     <t>04-17.-x</t>
   </si>
   <si>
-    <t>Részei:</t>
-  </si>
-  <si>
     <t>Mit kell tudni róla</t>
   </si>
   <si>
@@ -106,12 +104,33 @@
   </si>
   <si>
     <t>Róluk</t>
+  </si>
+  <si>
+    <t>04.26.-x</t>
+  </si>
+  <si>
+    <t>04.-26.-x</t>
+  </si>
+  <si>
+    <t>Nav bar Részei:</t>
+  </si>
+  <si>
+    <t>Alap:</t>
+  </si>
+  <si>
+    <t>Alap elkészítése</t>
+  </si>
+  <si>
+    <t>Nem minden működik</t>
+  </si>
+  <si>
+    <t>Gombok elkészítése</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -468,22 +487,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C1:H25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="3" max="3" width="16" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C1" s="3" t="s">
         <v>0</v>
       </c>
@@ -503,7 +523,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C2" s="1"/>
       <c r="D2" s="1" t="s">
         <v>9</v>
@@ -521,7 +541,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C3" s="1"/>
       <c r="D3" s="1" t="s">
         <v>10</v>
@@ -539,7 +559,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C4" s="1"/>
       <c r="D4" s="1" t="s">
         <v>12</v>
@@ -557,7 +577,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C5" s="1"/>
       <c r="D5" s="1" t="s">
         <v>16</v>
@@ -575,7 +595,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C6" s="1"/>
       <c r="D6" s="1" t="s">
         <v>17</v>
@@ -593,7 +613,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C7" s="1"/>
       <c r="D7" s="1" t="s">
         <v>18</v>
@@ -611,7 +631,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C8" s="1"/>
       <c r="D8" s="1" t="s">
         <v>19</v>
@@ -629,7 +649,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C9" s="1"/>
       <c r="D9" s="1" t="s">
         <v>20</v>
@@ -647,7 +667,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C10" s="1"/>
       <c r="D10" s="1" t="s">
         <v>21</v>
@@ -665,7 +685,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C11" s="1"/>
       <c r="D11" s="1" t="s">
         <v>22</v>
@@ -683,65 +703,119 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C12" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D12" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-    </row>
-    <row r="13" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="E12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C13" s="1"/>
       <c r="D13" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-    </row>
-    <row r="14" spans="3:8" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C14" s="1"/>
       <c r="D14" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-    </row>
-    <row r="15" spans="3:8" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C15" s="1"/>
       <c r="D15" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-    </row>
-    <row r="16" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-    </row>
-    <row r="17" spans="3:8" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C16" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F16" s="2">
+        <v>45042</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-    </row>
-    <row r="18" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="D17" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F17" s="2">
+        <v>45042</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
@@ -749,7 +823,7 @@
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
     </row>
-    <row r="19" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
@@ -757,7 +831,7 @@
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
     </row>
-    <row r="20" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
@@ -765,7 +839,7 @@
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
     </row>
-    <row r="21" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
@@ -773,7 +847,7 @@
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
     </row>
-    <row r="22" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
@@ -781,7 +855,7 @@
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
     </row>
-    <row r="23" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
@@ -789,7 +863,7 @@
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
     </row>
-    <row r="24" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
@@ -797,7 +871,7 @@
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
     </row>
-    <row r="25" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
